--- a/oka-shujin/checklist.xlsx
+++ b/oka-shujin/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/oka-shujin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446453F0-AD46-E04E-84A1-750B93EE72E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096F9B4-909C-8D4A-94A5-BB1E77E70121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DE836D88-C006-344A-B174-3A970EBE610E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{DE836D88-C006-344A-B174-3A970EBE610E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>year</t>
   </si>
@@ -114,6 +114,42 @@
   </si>
   <si>
     <t>oka_shujin2.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>7-7</t>
   </si>
 </sst>
 </file>
@@ -157,9 +193,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC31BD5A-47E0-6342-917C-9F8D48B2C88D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,10 +522,10 @@
     <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +541,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -521,8 +564,14 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1994</v>
       </c>
@@ -538,8 +587,14 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1995</v>
       </c>
@@ -555,8 +610,14 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1995</v>
       </c>
@@ -572,8 +633,14 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1995</v>
       </c>
@@ -589,8 +656,14 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1995</v>
       </c>
@@ -606,8 +679,14 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1996</v>
       </c>
@@ -622,6 +701,12 @@
       </c>
       <c r="E8" t="s">
         <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/oka-shujin/checklist.xlsx
+++ b/oka-shujin/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/oka-shujin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096F9B4-909C-8D4A-94A5-BB1E77E70121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C0EFF6-0CDB-474B-A923-1FE335945265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{DE836D88-C006-344A-B174-3A970EBE610E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>year</t>
   </si>
@@ -150,13 +150,46 @@
   </si>
   <si>
     <t>7-7</t>
+  </si>
+  <si>
+    <t>later.jpg</t>
+  </si>
+  <si>
+    <t>later_vol1.jpg</t>
+  </si>
+  <si>
+    <t>later_vol2.jpg</t>
+  </si>
+  <si>
+    <t>Group SNE</t>
+  </si>
+  <si>
+    <t>央華封神RPG ロールプレイング・ゲーム</t>
+  </si>
+  <si>
+    <t>Oka Hoshin Role Playing Game</t>
+  </si>
+  <si>
+    <t>Oka Hoshin 1</t>
+  </si>
+  <si>
+    <t>Oka Hoshin 2</t>
+  </si>
+  <si>
+    <t>央華封神１</t>
+  </si>
+  <si>
+    <t>央華封神２</t>
+  </si>
+  <si>
+    <t>manga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +201,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC31BD5A-47E0-6342-917C-9F8D48B2C88D}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +748,68 @@
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>